--- a/Anlin Albert/Raw data/Data Frame Details.xlsx
+++ b/Anlin Albert/Raw data/Data Frame Details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="22">
   <si>
     <t>Sl.No</t>
   </si>
@@ -57,10 +57,31 @@
     <t>Narzo 20 Pro</t>
   </si>
   <si>
-    <t>Min Value</t>
+    <t>Walking</t>
   </si>
   <si>
-    <t>Max Value</t>
+    <t>Upstairs</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Downstairs</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
 </sst>
 </file>
@@ -82,15 +103,21 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -98,13 +125,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,108 +526,1790 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A2:AG66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>-1.3</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-18.2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-4.3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-12.7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-15.7</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-6.2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-0.6</v>
+      </c>
+      <c r="L14" s="3">
+        <v>19.2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>-5.4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-8.1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-3.9</v>
+      </c>
+      <c r="R14" s="3">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
+        <v>12.7</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6">
+        <v>25.2</v>
+      </c>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>-14.5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="D23" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-12.7</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-19.8</v>
+      </c>
+      <c r="J23" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-6.2</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="P23" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
+        <v>26.1</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6">
+        <v>18</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>-12.7</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="D32" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6.3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2.4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-14.4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1.9</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-20.7</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-11.1</v>
+      </c>
+      <c r="P32" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-3.4</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>10</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B41" s="3">
+        <v>-13.6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-11.5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-1.7</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>-13</v>
+      </c>
+      <c r="I41" s="3">
+        <v>-17.7</v>
+      </c>
+      <c r="J41" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="M41" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-14.9</v>
+      </c>
+      <c r="O41" s="3">
+        <v>-25.6</v>
+      </c>
+      <c r="P41" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="R41" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>17</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6">
+        <v>22.1</v>
+      </c>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6">
+        <v>32</v>
+      </c>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="14"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="10"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="10"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>-4</v>
+      </c>
+      <c r="B50" s="5">
+        <v>-16.8</v>
+      </c>
+      <c r="C50" s="5">
+        <v>-10.5</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-3.3</v>
+      </c>
+      <c r="F50" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="G50" s="5">
+        <v>-6.1</v>
+      </c>
+      <c r="H50" s="5">
+        <v>-26</v>
+      </c>
+      <c r="I50" s="5">
+        <v>-11.6</v>
+      </c>
+      <c r="J50" s="5">
+        <v>10.8</v>
+      </c>
+      <c r="K50" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="L50" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="M50" s="5">
+        <v>-15.5</v>
+      </c>
+      <c r="N50" s="5">
+        <v>-23.1</v>
+      </c>
+      <c r="O50" s="5">
+        <v>-16</v>
+      </c>
+      <c r="P50" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>-4.3</v>
+      </c>
+      <c r="R50" s="5">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6">
+        <v>28</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6">
+        <v>-5.8</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6">
+        <v>22.8</v>
+      </c>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="R52" s="6"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="B59" s="5">
+        <v>-19.5</v>
+      </c>
+      <c r="C59" s="5">
+        <v>-9</v>
+      </c>
+      <c r="D59" s="3">
         <v>10.199999999999999</v>
       </c>
+      <c r="E59" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>-11.9</v>
+      </c>
+      <c r="H59" s="3">
+        <v>-25.5</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-5.5</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="K59" s="3">
+        <v>-3.9</v>
+      </c>
+      <c r="L59" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M59" s="3">
+        <v>-10.4</v>
+      </c>
+      <c r="N59" s="3">
+        <v>-21.1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>-12.7</v>
+      </c>
+      <c r="P59" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>-3.8</v>
+      </c>
+      <c r="R59" s="3">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6">
+        <v>21.6</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6">
+        <v>17.3</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R61" s="6"/>
+    </row>
+    <row r="66" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="133">
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:L60"/>
+    <mergeCell ref="M60:R60"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:L33"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="O61:P61"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="M47:R47"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="A10:R10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="A46:R46"/>
+    <mergeCell ref="A55:R55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="M56:R56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
